--- a/user_ids/user_name_type_organisation_rel.xlsx
+++ b/user_ids/user_name_type_organisation_rel.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecd161a59d566130/Masterarbeit2022/Working/Tool Masterarbeit/user_ids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08C0C0EF-CAE1-437F-81C4-07BD0594603F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{08C0C0EF-CAE1-437F-81C4-07BD0594603F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFCAA984-DB1D-4C27-B745-5FF5A64DA870}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7065" windowWidth="38640" windowHeight="21120" xr2:uid="{BDFEEF1E-CCE3-47E8-8A0A-408588C678D1}"/>
+    <workbookView xWindow="57480" yWindow="7065" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{BDFEEF1E-CCE3-47E8-8A0A-408588C678D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="ListUserIDNAME" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$59</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>User_ID</t>
   </si>
@@ -97,15 +101,6 @@
     <t>Wolfgang Munchau</t>
   </si>
   <si>
-    <t>AIP</t>
-  </si>
-  <si>
-    <t>econ_stardust</t>
-  </si>
-  <si>
-    <t>EuroBriefing</t>
-  </si>
-  <si>
     <t>Stephan Schulmeister</t>
   </si>
   <si>
@@ -127,9 +122,6 @@
     <t>Vitor Constâncio</t>
   </si>
   <si>
-    <t>Ex ECB</t>
-  </si>
-  <si>
     <t>Monika Köppl Turyna</t>
   </si>
   <si>
@@ -145,27 +137,15 @@
     <t>Thomas Piketty</t>
   </si>
   <si>
-    <t>Economist</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
     <t>Nouriel Roubini</t>
   </si>
   <si>
-    <t>Crash</t>
-  </si>
-  <si>
     <t>Paul Romer</t>
   </si>
   <si>
     <t>Lawrence H. Summers</t>
   </si>
   <si>
-    <t>US Economic Advisor</t>
-  </si>
-  <si>
     <t>Joseph E. Stiglitz</t>
   </si>
   <si>
@@ -223,21 +203,12 @@
     <t>Robin Brooks</t>
   </si>
   <si>
-    <t>Bank Economist</t>
-  </si>
-  <si>
     <t>Lyn Alden</t>
   </si>
   <si>
-    <t>Economic Commentor</t>
-  </si>
-  <si>
     <t>Julian Brigden</t>
   </si>
   <si>
-    <t>Commercial Forecaster</t>
-  </si>
-  <si>
     <t>Lance Roberts</t>
   </si>
   <si>
@@ -250,10 +221,67 @@
     <t>Jim Bianco biancoresearch.eth</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Organisation</t>
+    <t>851431642950402048</t>
+  </si>
+  <si>
+    <t>1233052817390284800</t>
+  </si>
+  <si>
+    <t>40129171</t>
+  </si>
+  <si>
+    <t>332617373</t>
+  </si>
+  <si>
+    <t>1701930446</t>
+  </si>
+  <si>
+    <t>37065910</t>
+  </si>
+  <si>
+    <t>998503348369272832</t>
+  </si>
+  <si>
+    <t>2541212474</t>
+  </si>
+  <si>
+    <t>2767778093</t>
+  </si>
+  <si>
+    <t>281766494</t>
+  </si>
+  <si>
+    <t>2215783724</t>
+  </si>
+  <si>
+    <t>1080799090538172416</t>
+  </si>
+  <si>
+    <t>714051110</t>
+  </si>
+  <si>
+    <t>973924410771075072</t>
+  </si>
+  <si>
+    <t>3381355079</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>Monika Schnitzer🇺🇦🇪🇺</t>
+  </si>
+  <si>
+    <t>Daniel D. Eckert 🇺🇦</t>
+  </si>
+  <si>
+    <t>Isabel Schnabel 🇪🇺🇺🇦</t>
+  </si>
+  <si>
+    <t>Oliver Rakau</t>
   </si>
 </sst>
 </file>
@@ -269,12 +297,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -289,9 +323,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,553 +643,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD2AA6B-B9D7-46E2-B608-E5DE4EB74436}">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A58" activeCellId="5" sqref="A17:B20 A32:B32 A34:B34 A44:B44 A52:B52 A58:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7890625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5234375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1.2330528173902799E+18</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="2">
+        <v>1.2330528173902799E+18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>8.5143164295040205E+17</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="2">
+        <v>8.5143164295040205E+17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>40129171</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="2">
+        <v>40129171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>332617373</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="2">
+        <v>332617373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1701930446</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="2">
+        <v>1701930446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>37065910</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="2">
+        <v>37065910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>9.9850334836927206E+17</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="2">
+        <v>9.9850334836927206E+17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>2541212474</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="2">
+        <v>2541212474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>2767778093</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="2">
+        <v>2767778093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>281766494</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="2">
+        <v>281766494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>2215783724</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="2">
+        <v>2215783724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1.08079909053817E+18</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="2">
+        <v>1.08079909053817E+18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>714051110</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="2">
+        <v>714051110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>9.7392441077107494E+17</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="2">
+        <v>9.7392441077107494E+17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>3381355079</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1">
+      <c r="E16" s="2">
+        <v>3381355079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
         <v>549984399</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1">
+      <c r="E17" s="2">
+        <v>549984399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3">
         <v>2511153668</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1">
+      <c r="E18" s="2">
+        <v>2511153668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3">
         <v>80024060</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1">
+      <c r="E19" s="2">
+        <v>80024060</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3">
         <v>1870918706</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1870918706</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>1.2686551159189499E+18</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.2686551159189499E+18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>140804291</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+      <c r="E22" s="2">
+        <v>140804291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>36777600</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+      <c r="E23" s="2">
+        <v>36777600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>7.3077180941140301E+17</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7.3077180941140301E+17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>3837709792</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3837709792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>564890401</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+      <c r="E26" s="2">
+        <v>564890401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>515330078</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+      <c r="E27" s="2">
+        <v>515330078</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>8.9778540188423706E+17</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8.9778540188423706E+17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1.3239408501839099E+18</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.3239408501839099E+18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>423769635</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+      <c r="E30" s="2">
+        <v>423769635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>4068347835</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4068347835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3">
         <v>19224439</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+      <c r="E32" s="2">
+        <v>19224439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>937071079</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="E33" s="2">
+        <v>937071079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3">
         <v>236526490</v>
       </c>
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2">
+        <v>236526490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1963312058</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>35</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1963312058</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>292974901</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+      <c r="E36" s="2">
+        <v>292974901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>2215885806</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2215885806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>8.4706935409310502E+17</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+      <c r="E38" s="2">
+        <v>8.4706935409310502E+17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>1.02210165151417E+18</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.02210165151417E+18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1.2521718931819E+18</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.2521718931819E+18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>8.3468831763555904E+17</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+      <c r="E41" s="2">
+        <v>8.3468831763555904E+17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>9.8081819866371597E+17</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+      <c r="E42" s="2">
+        <v>9.8081819866371597E+17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>2394050364</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2394050364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="3">
         <v>2322603341</v>
       </c>
-      <c r="B44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2322603341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>1.3331717932012201E+18</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1.3331717932012201E+18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>7.1991406869866394E+17</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+      <c r="E46" s="2">
+        <v>7.1991406869866394E+17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1374144540</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>47</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1374144540</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>8.8869530587671296E+17</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+      <c r="E48" s="2">
+        <v>8.8869530587671296E+17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>258353673</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+      <c r="E49" s="2">
+        <v>258353673</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1.06242956131141E+18</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.06242956131141E+18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>7.6914520067348403E+17</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="E51" s="2">
+        <v>7.6914520067348403E+17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="3">
         <v>2412642679</v>
       </c>
-      <c r="B52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2412642679</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>8.8811810309511501E+17</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+      <c r="E53" s="2">
+        <v>8.8811810309511501E+17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>8.2376605890976102E+17</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>54</v>
+      </c>
+      <c r="E54" s="2">
+        <v>8.2376605890976102E+17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>8.3626604890727603E+17</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+      <c r="E55" s="2">
+        <v>8.3626604890727603E+17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>49958733</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+      <c r="E56" s="2">
+        <v>49958733</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>2584103654</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2584103654</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="3">
         <v>1327359720</v>
       </c>
-      <c r="B58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1">
+      <c r="B58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1327359720</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="3">
         <v>188369814</v>
       </c>
-      <c r="B59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="2">
+        <v>188369814</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1">
+        <v>8.5143164295040205E+17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61"/>
-      <c r="C61" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -1390,7 +1557,234 @@
       <c r="A142"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B59" xr:uid="{EFD2AA6B-B9D7-46E2-B608-E5DE4EB74436}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA8BC9B-94BA-48AE-AEA6-B64A1B3DF9A6}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="19.7890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>549984399</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>2511153668</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>80024060</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>1870918706</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>19224439</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
+        <v>236526490</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <v>2322603341</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>2412642679</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
+        <v>1327359720</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>188369814</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>